--- a/测试chunk nvmtable的作用.xlsx
+++ b/测试chunk nvmtable的作用.xlsx
@@ -191,7 +191,7 @@
     <t>18.826 micros/op;   51.8 MB/s</t>
   </si>
   <si>
-    <t>13.366 micros/op;   73.0 MB/s</t>
+    <t xml:space="preserve">cd </t>
   </si>
   <si>
     <t>20.862 micros/op;   46.8 MB/s(nvm为485M)</t>
@@ -1326,8 +1326,8 @@
   <sheetPr/>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
